--- a/data/trans_bre/CONS_ANT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,86%</t>
+          <t>-5,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>39,59%</t>
+          <t>83,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-15,74%</t>
+          <t>43,86%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 2,41</t>
+          <t>-2,26; 1,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 4,34</t>
+          <t>-0,1; 8,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 0,77</t>
+          <t>-0,68; 2,67</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,03; 176,63</t>
+          <t>-64,75; 173,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-19,0; 151,88</t>
+          <t>-10,55; 340,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 73,09</t>
+          <t>-32,24; 260,93</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>16,77%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>11,02%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 1,35</t>
+          <t>-0,45; 0,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,31</t>
+          <t>-1,15; 1,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 0,42</t>
+          <t>-0,83; 1,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,28; 91,89</t>
+          <t>-46,06; 143,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,93; 79,55</t>
+          <t>-37,99; 161,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,92; 75,49</t>
+          <t>-32,53; 101,14</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>189,73%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>102,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>363,22%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,61; 3,67</t>
+          <t>-0,74; 0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,46</t>
+          <t>-0,46; 2,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 0,98</t>
+          <t>1,13; 4,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,89; 665,92</t>
+          <t>-67,44; 352,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 340,61</t>
+          <t>-32,11; 468,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,15; 458,51</t>
+          <t>98,02; 1301,02</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,37%</t>
+          <t>58,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>55,0%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 1,61</t>
+          <t>-0,35; 0,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 1,74</t>
+          <t>0,03; 2,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 0,41</t>
+          <t>0,09; 1,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 111,34</t>
+          <t>-32,61; 92,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 85,65</t>
+          <t>1,83; 183,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-35,21; 60,59</t>
+          <t>3,51; 130,81</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,11</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-5,41%</t>
+          <t>15,95%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 1,45</t>
+          <t>-1,33; 1,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 8,36</t>
+          <t>-0,07; 7,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-64,75; 173,1</t>
+          <t>-50,42; 188,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,55; 340,52</t>
+          <t>-11,98; 331,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>16,77%</t>
+          <t>49,43%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,66</t>
+          <t>-0,26; 0,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 1,89</t>
+          <t>-1,2; 1,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-46,06; 143,69</t>
+          <t>-34,01; 221,33</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,99; 161,4</t>
+          <t>-39,9; 130,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,13%</t>
+          <t>19,38%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 0,77</t>
+          <t>-0,65; 0,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,73</t>
+          <t>-0,27; 2,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-67,44; 352,73</t>
+          <t>-65,76; 326,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-32,11; 468,6</t>
+          <t>-26,56; 502,1</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,96%</t>
+          <t>39,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 0,6</t>
+          <t>-0,12; 0,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,03; 2,6</t>
+          <t>-0,06; 2,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 92,11</t>
+          <t>-14,2; 134,39</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,83; 183,72</t>
+          <t>-1,95; 164,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_ANT-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,75</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,31</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>75,78%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>43,86%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>15,95%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>83,28%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>43,86%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-0,59; 5,57</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 2,67</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,33; 1,89</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,07; 7,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 2,67</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-17,6; 258,31</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-32,24; 260,93</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-50,42; 188,99</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,98; 331,81</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-32,24; 260,93</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,31</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,22</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>26,35%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>11,02%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>49,43%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>18,24%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,02%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-0,71; 1,9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 1,34</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-0,26; 0,87</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,2; 1,84</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 1,34</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-22,83; 116,94</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-32,53; 101,14</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-34,01; 221,33</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-39,9; 130,26</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-32,53; 101,14</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,39</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,11</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,39</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>189,42%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>363,22%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>19,38%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>102,46%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>363,22%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>0,38; 3,98</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1,13; 4,18</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,65; 0,75</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 2,81</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,13; 4,18</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>9,09; 716,03</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>98,02; 1301,02</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-65,76; 326,64</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-26,56; 502,1</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>98,02; 1301,02</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>1,49</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,3</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>65,4%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>39,2%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>58,54%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>55,0%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,38; 2,41</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0,09; 1,69</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,12; 0,77</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,06; 2,46</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 1,69</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>11,4; 140,1</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3,51; 130,81</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-14,2; 134,39</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,95; 164,27</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 130,81</t>
         </is>
       </c>
     </row>
